--- a/static/ValesResguardo.xlsx
+++ b/static/ValesResguardo.xlsx
@@ -1,32 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mugar\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56832CB5-B630-4DE3-A114-FCDF2CA4832D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29F2C4D0-9EB3-4044-BAC5-66D81A9934D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{A965DEE5-E521-47EA-A3F7-BA4CE0266122}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="VALE DE RESGUARDO" sheetId="1" r:id="rId1"/>
+    <sheet name="VALE DE RESGUARDO" sheetId="8" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'VALE DE RESGUARDO'!$A1:$I30</definedName>
+  </definedNames>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
+    <t>CANTIDAD</t>
+  </si>
+  <si>
     <t>VALE DE RESGURADO DE EQUIPO Y HERRAMIENTA MENOR</t>
   </si>
   <si>
@@ -43,9 +39,6 @@
   </si>
   <si>
     <t>AREA :</t>
-  </si>
-  <si>
-    <t>CANTIDAD</t>
   </si>
   <si>
     <t>DESCIPCION</t>
@@ -85,8 +78,10 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -96,16 +91,14 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -293,30 +286,30 @@
   </cellStyleXfs>
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -327,46 +320,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -375,17 +344,41 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -406,20 +399,25 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1104900" cy="638175"/>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A4A8D40-C48B-4F12-9F52-6C464D03B222}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -435,8 +433,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="28575"/>
-          <a:ext cx="1257300" cy="647700"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -444,21 +442,26 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="733425" cy="666750"/>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{820AE192-ED19-4398-8E30-CBC47FD777FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -474,8 +477,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6038850" y="133350"/>
-          <a:ext cx="885825" cy="676275"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -483,14 +486,14 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -498,44 +501,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -563,31 +566,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -615,26 +601,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -643,210 +612,235 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A96C42-6025-452B-897D-3DF50994B912}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" customWidth="1"/>
     <col min="10" max="256" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="35"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
+    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
+    <row r="5" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -855,41 +849,41 @@
       <c r="H5" s="3"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="G6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="44"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="35"/>
+      <c r="I6" s="36"/>
+    </row>
+    <row r="7" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
       <c r="G7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="46"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="H7" s="40"/>
+      <c r="I7" s="39"/>
+    </row>
+    <row r="8" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
       <c r="G8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="29"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="H8" s="37"/>
+      <c r="I8" s="39"/>
+    </row>
+    <row r="9" spans="1:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -900,70 +894,70 @@
       <c r="H9" s="9"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="29"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="39"/>
+    </row>
+    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="32"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="43"/>
+    </row>
+    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="32"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="43"/>
+    </row>
+    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="32"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="43"/>
+    </row>
+    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
@@ -974,7 +968,7 @@
       <c r="H16" s="14"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
@@ -985,7 +979,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
@@ -996,7 +990,7 @@
       <c r="H18" s="14"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
@@ -1007,7 +1001,7 @@
       <c r="H19" s="14"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
@@ -1018,7 +1012,7 @@
       <c r="H20" s="14"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
@@ -1029,7 +1023,7 @@
       <c r="H21" s="14"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>8</v>
       </c>
@@ -1042,7 +1036,7 @@
       <c r="H22" s="15"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -1053,7 +1047,7 @@
       <c r="H23" s="15"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -1064,7 +1058,7 @@
       <c r="H24" s="15"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -1075,7 +1069,7 @@
       <c r="H25" s="15"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -1086,7 +1080,7 @@
       <c r="H26" s="15"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>9</v>
       </c>
@@ -1099,19 +1093,19 @@
       <c r="H27" s="17"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>10</v>
       </c>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>11</v>
       </c>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -1122,7 +1116,7 @@
       <c r="H30" s="15"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -1133,7 +1127,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
       <c r="B32" s="22"/>
       <c r="C32" s="23"/>
@@ -1144,24 +1138,24 @@
       <c r="H32" s="22"/>
       <c r="I32" s="24"/>
     </row>
-    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
+    <row r="33" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="34"/>
+      <c r="B33" s="45"/>
       <c r="C33" s="25"/>
-      <c r="D33" s="34" t="s">
+      <c r="D33" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="34"/>
+      <c r="E33" s="45"/>
       <c r="F33" s="25"/>
-      <c r="G33" s="34" t="s">
+      <c r="G33" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="34"/>
+      <c r="H33" s="46"/>
       <c r="I33" s="26"/>
     </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -1188,276 +1182,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:I15"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:H13"/>
     <mergeCell ref="A1:B5"/>
     <mergeCell ref="C1:H4"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B15:I15"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.19685039370078741" right="0" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="89" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009FB24B5B90B0AA4C97B57EC31ABFAA3F" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b3e399e3bbe7fdd65b2e4093fb1c0604">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="56934255-427f-48cd-8d6a-be71eb084e72" xmlns:ns4="aa0c3e4d-c5c5-4090-a3cb-7aea50ab4000" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87eb834d38fcc13df0f5e59dffaabf8f" ns3:_="" ns4:_="">
-    <xsd:import namespace="56934255-427f-48cd-8d6a-be71eb084e72"/>
-    <xsd:import namespace="aa0c3e4d-c5c5-4090-a3cb-7aea50ab4000"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns3:SharingHintHash" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns4:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="56934255-427f-48cd-8d6a-be71eb084e72" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="SharingHintHash" ma:index="10" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="aa0c3e4d-c5c5-4090-a3cb-7aea50ab4000" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="13" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="15" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42497596-B470-47A9-AD36-9CDC768ED9F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCA7EE36-9F2F-4D1E-BA2C-AC6A5DE70C56}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="56934255-427f-48cd-8d6a-be71eb084e72"/>
-    <ds:schemaRef ds:uri="aa0c3e4d-c5c5-4090-a3cb-7aea50ab4000"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAE6C30F-A9F4-484F-87D7-1DF173FD6F6D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="56934255-427f-48cd-8d6a-be71eb084e72"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="aa0c3e4d-c5c5-4090-a3cb-7aea50ab4000"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>